--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1519883.084255912</v>
+        <v>1517385.352332224</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1608661450425</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>118.9581905386867</v>
@@ -710,7 +710,7 @@
         <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.99233352535231</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>75.29191578671448</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>68.93552766547444</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.1694018531032</v>
+        <v>291.134226044259</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386868</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020874</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323657</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199407</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
         <v>148.0912566156103</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>82.00778769603606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>117.2498788979307</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>303.8483408005365</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>285.6365841502414</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.35719926835259</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.02107606587697</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.2963218977554</v>
       </c>
       <c r="C13" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.27859867330056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>82.47290449300773</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74133133758728</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.8107367464759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.78074638267672</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>129.719450923316</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>34.44047701880672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.355497510778</v>
+        <v>1688.273310836092</v>
       </c>
       <c r="C2" t="n">
-        <v>1052.392980570367</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="D2" t="n">
-        <v>694.1272819636163</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="E2" t="n">
-        <v>694.1272819636163</v>
+        <v>1319.31079389568</v>
       </c>
       <c r="F2" t="n">
-        <v>283.1413771740087</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174001</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
         <v>172.8778760174001</v>
@@ -4328,19 +4328,19 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>321.4042764948841</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>872.3447282234645</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M2" t="n">
-        <v>1501.978681104742</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N2" t="n">
-        <v>2127.168772059856</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O2" t="n">
         <v>2493.174093780568</v>
@@ -4358,22 +4358,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.652798385543</v>
+        <v>2392.801956440743</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.652798385543</v>
+        <v>2392.801956440743</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.589911041972</v>
+        <v>2061.739069097172</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.821255771858</v>
+        <v>2061.739069097172</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.355497510778</v>
+        <v>1688.273310836092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.355497510778</v>
+        <v>1688.273310836092</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         <v>622.2833943866591</v>
       </c>
       <c r="M3" t="n">
-        <v>1098.212790057563</v>
+        <v>1261.219859367377</v>
       </c>
       <c r="N3" t="n">
-        <v>1750.599124039305</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O3" t="n">
-        <v>2298.524363244979</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.90437972421</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.6604752809951</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="C4" t="n">
-        <v>275.6604752809951</v>
+        <v>878.815501493953</v>
       </c>
       <c r="D4" t="n">
-        <v>275.6604752809951</v>
+        <v>728.6988620816172</v>
       </c>
       <c r="E4" t="n">
-        <v>275.6604752809951</v>
+        <v>580.7857684992241</v>
       </c>
       <c r="F4" t="n">
-        <v>128.7705277830847</v>
+        <v>433.8958210013137</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>265.2835444837049</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>195.651698356963</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="J4" t="n">
         <v>52.7180875944842</v>
@@ -4522,16 +4522,16 @@
         <v>1047.75168442186</v>
       </c>
       <c r="V4" t="n">
-        <v>793.067196215973</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W4" t="n">
-        <v>503.6500261790124</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="X4" t="n">
-        <v>275.6604752809951</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="Y4" t="n">
-        <v>275.6604752809951</v>
+        <v>1047.75168442186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1663.788361862355</v>
+        <v>722.7010810863812</v>
       </c>
       <c r="C5" t="n">
-        <v>1294.825844921943</v>
+        <v>353.7385641459695</v>
       </c>
       <c r="D5" t="n">
-        <v>936.5601463151927</v>
+        <v>353.7385641459695</v>
       </c>
       <c r="E5" t="n">
-        <v>936.5601463151927</v>
+        <v>353.7385641459695</v>
       </c>
       <c r="F5" t="n">
-        <v>525.5742415255852</v>
+        <v>346.7930633967661</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174001</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174001</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903775</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>519.2401409112197</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>1070.1805926398</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M5" t="n">
-        <v>1699.814545521077</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N5" t="n">
-        <v>2325.004636476191</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780569</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992998</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
@@ -4595,22 +4595,22 @@
         <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.451089270047</v>
+        <v>2166.598222025268</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.388201926477</v>
+        <v>1835.535334681697</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.388201926477</v>
+        <v>1482.766679411583</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.388201926477</v>
+        <v>1109.300921150503</v>
       </c>
       <c r="Y5" t="n">
-        <v>2050.388201926477</v>
+        <v>1109.300921150503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
         <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815741</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352079</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727245</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L6" t="n">
-        <v>849.2000211608078</v>
+        <v>255.1514525362346</v>
       </c>
       <c r="M6" t="n">
-        <v>1488.136486141526</v>
+        <v>894.0879175169528</v>
       </c>
       <c r="N6" t="n">
-        <v>2140.522820123268</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>2298.52436324498</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
         <v>2406.001465018976</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>598.9695543803117</v>
+        <v>469.1820416982339</v>
       </c>
       <c r="C7" t="n">
-        <v>598.9695543803117</v>
+        <v>469.1820416982339</v>
       </c>
       <c r="D7" t="n">
-        <v>516.1334051923965</v>
+        <v>319.0654022858982</v>
       </c>
       <c r="E7" t="n">
-        <v>368.2203116100034</v>
+        <v>171.1523087035051</v>
       </c>
       <c r="F7" t="n">
-        <v>221.330364112093</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
         <v>52.7180875944842</v>
@@ -4729,46 +4729,46 @@
         <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482326</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628152</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543761</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917089</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327085</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421859</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421859</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421859</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421859</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421859</v>
+        <v>758.5992117351946</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421859</v>
+        <v>758.5992117351946</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421859</v>
+        <v>469.1820416982339</v>
       </c>
       <c r="X7" t="n">
-        <v>819.7621335238418</v>
+        <v>469.1820416982339</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.9695543803117</v>
+        <v>469.1820416982339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.699449423197</v>
+        <v>1589.767838252667</v>
       </c>
       <c r="C8" t="n">
-        <v>1116.736932482785</v>
+        <v>1220.805321312255</v>
       </c>
       <c r="D8" t="n">
-        <v>758.4712338760348</v>
+        <v>862.5396227055045</v>
       </c>
       <c r="E8" t="n">
-        <v>372.6829812777906</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
         <v>65.76546531765268</v>
@@ -4802,25 +4802,25 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.9523375878675</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4194506079129</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.232708854112</v>
+        <v>1033.218542125548</v>
       </c>
       <c r="M8" t="n">
-        <v>1661.950519837424</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>1856.284732729406</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2403.445937496484</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702615</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.90437972421</v>
@@ -4829,25 +4829,25 @@
         <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.90437972421</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.90437972421</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="X8" t="n">
-        <v>2262.43862146313</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="Y8" t="n">
-        <v>1872.299289487319</v>
+        <v>1976.367678316788</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.7180875944842</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578412</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.922426599977</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.3584353527</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.24461309174</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="C10" t="n">
-        <v>666.24461309174</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>516.1279736794042</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>368.2148800970111</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>221.3249325991008</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
         <v>52.7180875944842</v>
@@ -4996,16 +4996,16 @@
         <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>1007.847517267614</v>
       </c>
       <c r="W10" t="n">
-        <v>763.2355990168683</v>
+        <v>718.4303472306535</v>
       </c>
       <c r="X10" t="n">
-        <v>666.24461309174</v>
+        <v>718.4303472306535</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.24461309174</v>
+        <v>497.6377680871234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.448174698413</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>486.0795508855734</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.7363435406111</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2404.800122633203</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2221.945288288107</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2002.343823311048</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1713.268596655246</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1458.584108449359</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.166938412398</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>941.1773875143809</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.3848083708508</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,16 +5890,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263188</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2349.204753900789</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7339,43 +7339,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2315.933335172869</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7991,7 +7991,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>199.8342064811453</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>301.051458386551</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792256</v>
+        <v>186.9417816116889</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>199.8342064811472</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,7 +8228,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>216.3319648903</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792257</v>
+        <v>347.7048391792993</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818469</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>87.61615854202526</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>176.8008973295432</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>64.53565828418192</v>
       </c>
       <c r="C13" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>144.165476520764</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>84.7739166056201</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>24.63391537253442</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.77391660561892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>84.24553961896787</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>51.30683507832862</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26077,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913529.4203363678</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474354</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.272232992</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695037</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695059</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>6287.480531695056</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695061</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695053</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695061</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.1201253844</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-547697.2876233447</v>
+        <v>-547697.2876233442</v>
       </c>
       <c r="C6" t="n">
-        <v>242148.6454988969</v>
+        <v>242148.645498897</v>
       </c>
       <c r="D6" t="n">
-        <v>240033.6536915223</v>
+        <v>240033.6536915225</v>
       </c>
       <c r="E6" t="n">
-        <v>-378567.6577823404</v>
+        <v>-378602.3957077765</v>
       </c>
       <c r="F6" t="n">
-        <v>397056.6144506513</v>
+        <v>397021.876525216</v>
       </c>
       <c r="G6" t="n">
-        <v>397056.6144506517</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="H6" t="n">
-        <v>397056.6144506513</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="I6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="J6" t="n">
-        <v>224639.4730685111</v>
+        <v>224604.7351430755</v>
       </c>
       <c r="K6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="L6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="M6" t="n">
-        <v>269032.496984265</v>
+        <v>268997.7590588291</v>
       </c>
       <c r="N6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="O6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="P6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252157</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053403</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724773</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685955</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.7680253411264</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>127.7120050469795</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>91.63423796571824</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>83.82437718111558</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.7594896330657</v>
+        <v>121.7946654419098</v>
       </c>
       <c r="H5" t="n">
         <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>66.60768532217629</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.17116912500053</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
@@ -27795,7 +27795,7 @@
         <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063292</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>103.0277049411749</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>100.6013545058121</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>207.7804440554754</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.6885793231602</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.37384602896619</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171915</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
         <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071083</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160824</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337099</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635101</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129775</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728746</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
         <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170476</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506711</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.3915109917995</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172952</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31358,46 @@
         <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387886</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817851</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
         <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976558</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623856</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394104</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351602</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492037</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789727</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
         <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064907</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822749</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445354</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830291</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026023</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084956</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303715</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603985</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
         <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177235</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
         <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203278</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953874</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324564</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550639</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004282</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319896</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565735</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232861</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32081,13 +32081,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302377</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M2" t="n">
         <v>635.9938917992698</v>
@@ -34711,7 +34711,7 @@
         <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>369.7023451724363</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
         <v>110.1290305176052</v>
@@ -34784,19 +34784,19 @@
         <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>480.7367633039432</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310526</v>
+        <v>385.9370086635158</v>
       </c>
       <c r="O3" t="n">
         <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646426</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689241</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>281.7064722432749</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965457</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992696</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789033</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912908</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176051</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.0429754860734</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138623</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358754</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L6" t="n">
-        <v>353.5550884728114</v>
+        <v>137.2231235825116</v>
       </c>
       <c r="M6" t="n">
         <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310526</v>
+        <v>546.7000662311262</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5975183047593</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646425</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
         <v>232.2251663689241</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287769</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
         <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228107</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995564</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094271</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973499</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812003</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.3166085831128</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,10 +35188,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>199.4690123294258</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>377.4642727362752</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579324</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
